--- a/Excel-XLSX/UN-SRB.xlsx
+++ b/Excel-XLSX/UN-SRB.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>lLzK38</t>
+    <t>rSZy2f</t>
   </si>
   <si>
     <t>1965</t>
@@ -3024,18 +3024,24 @@
     <t>554</t>
   </si>
   <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
     <t>7810</t>
   </si>
   <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
     <t>558</t>
   </si>
   <si>
@@ -3054,12 +3060,12 @@
     <t>563</t>
   </si>
   <si>
+    <t>564</t>
+  </si>
+  <si>
     <t>17052</t>
   </si>
   <si>
-    <t>564</t>
-  </si>
-  <si>
     <t>565</t>
   </si>
   <si>
@@ -3069,12 +3075,6 @@
     <t>567</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KGZ</t>
-  </si>
-  <si>
     <t>568</t>
   </si>
   <si>
@@ -3102,13 +3102,13 @@
     <t>576</t>
   </si>
   <si>
-    <t>209784</t>
+    <t>209753</t>
   </si>
   <si>
     <t>577</t>
   </si>
   <si>
-    <t>2223</t>
+    <t>1715</t>
   </si>
   <si>
     <t>578</t>
@@ -3126,7 +3126,7 @@
     <t>582</t>
   </si>
   <si>
-    <t>7630</t>
+    <t>10719</t>
   </si>
   <si>
     <t>583</t>
@@ -40963,10 +40963,10 @@
         <v>30</v>
       </c>
       <c r="N551" s="2" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="O551" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="P551" s="2" t="s">
         <v>32</v>
@@ -40981,7 +40981,7 @@
         <v>32</v>
       </c>
       <c r="T551" s="2" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="U551" s="1" t="s">
         <v>33</v>
@@ -41007,16 +41007,16 @@
         <v>997</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>915</v>
+        <v>537</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>916</v>
+        <v>538</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>917</v>
+        <v>539</v>
       </c>
       <c r="J552" s="2" t="s">
         <v>28</v>
@@ -41049,7 +41049,7 @@
         <v>32</v>
       </c>
       <c r="T552" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="U552" s="1" t="s">
         <v>33</v>
@@ -41075,16 +41075,16 @@
         <v>997</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>470</v>
+        <v>915</v>
       </c>
       <c r="H553" s="1" t="s">
-        <v>471</v>
+        <v>916</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>471</v>
+        <v>917</v>
       </c>
       <c r="J553" s="2" t="s">
         <v>28</v>
@@ -41099,10 +41099,10 @@
         <v>30</v>
       </c>
       <c r="N553" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O553" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P553" s="2" t="s">
         <v>32</v>
@@ -41117,7 +41117,7 @@
         <v>32</v>
       </c>
       <c r="T553" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="U553" s="1" t="s">
         <v>33</v>
@@ -41143,16 +41143,16 @@
         <v>997</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>793</v>
+        <v>470</v>
       </c>
       <c r="H554" s="1" t="s">
-        <v>794</v>
+        <v>471</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>794</v>
+        <v>471</v>
       </c>
       <c r="J554" s="2" t="s">
         <v>28</v>
@@ -41167,10 +41167,10 @@
         <v>30</v>
       </c>
       <c r="N554" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="O554" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="P554" s="2" t="s">
         <v>32</v>
@@ -41185,7 +41185,7 @@
         <v>32</v>
       </c>
       <c r="T554" s="2" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="U554" s="1" t="s">
         <v>33</v>
@@ -41211,16 +41211,16 @@
         <v>997</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>206</v>
+        <v>793</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>207</v>
+        <v>794</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>208</v>
+        <v>794</v>
       </c>
       <c r="J555" s="2" t="s">
         <v>28</v>
@@ -41235,10 +41235,10 @@
         <v>30</v>
       </c>
       <c r="N555" s="2" t="s">
-        <v>1002</v>
+        <v>61</v>
       </c>
       <c r="O555" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P555" s="2" t="s">
         <v>32</v>
@@ -41253,7 +41253,7 @@
         <v>32</v>
       </c>
       <c r="T555" s="2" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="U555" s="1" t="s">
         <v>33</v>
@@ -41273,22 +41273,22 @@
         <v>22</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>839</v>
+        <v>571</v>
       </c>
       <c r="H556" s="1" t="s">
-        <v>840</v>
+        <v>572</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>841</v>
+        <v>572</v>
       </c>
       <c r="J556" s="2" t="s">
         <v>28</v>
@@ -41306,7 +41306,7 @@
         <v>32</v>
       </c>
       <c r="O556" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P556" s="2" t="s">
         <v>32</v>
@@ -41321,7 +41321,7 @@
         <v>32</v>
       </c>
       <c r="T556" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="U556" s="1" t="s">
         <v>33</v>
@@ -41341,22 +41341,22 @@
         <v>22</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>605</v>
+        <v>1004</v>
       </c>
       <c r="H557" s="1" t="s">
-        <v>606</v>
+        <v>1005</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>606</v>
+        <v>1005</v>
       </c>
       <c r="J557" s="2" t="s">
         <v>28</v>
@@ -41371,10 +41371,10 @@
         <v>30</v>
       </c>
       <c r="N557" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O557" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P557" s="2" t="s">
         <v>32</v>
@@ -41409,22 +41409,22 @@
         <v>22</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>608</v>
+        <v>206</v>
       </c>
       <c r="H558" s="1" t="s">
-        <v>609</v>
+        <v>207</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>610</v>
+        <v>208</v>
       </c>
       <c r="J558" s="2" t="s">
         <v>28</v>
@@ -41439,10 +41439,10 @@
         <v>30</v>
       </c>
       <c r="N558" s="2" t="s">
-        <v>46</v>
+        <v>1007</v>
       </c>
       <c r="O558" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P558" s="2" t="s">
         <v>32</v>
@@ -41477,22 +41477,22 @@
         <v>22</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>513</v>
+        <v>605</v>
       </c>
       <c r="H559" s="1" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
       <c r="I559" s="1" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
       <c r="J559" s="2" t="s">
         <v>28</v>
@@ -41507,10 +41507,10 @@
         <v>30</v>
       </c>
       <c r="N559" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O559" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="P559" s="2" t="s">
         <v>32</v>
@@ -41545,22 +41545,22 @@
         <v>22</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>705</v>
+        <v>608</v>
       </c>
       <c r="H560" s="1" t="s">
-        <v>706</v>
+        <v>609</v>
       </c>
       <c r="I560" s="1" t="s">
-        <v>706</v>
+        <v>610</v>
       </c>
       <c r="J560" s="2" t="s">
         <v>28</v>
@@ -41575,10 +41575,10 @@
         <v>30</v>
       </c>
       <c r="N560" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O560" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="P560" s="2" t="s">
         <v>32</v>
@@ -41613,22 +41613,22 @@
         <v>22</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="H561" s="1" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="I561" s="1" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="J561" s="2" t="s">
         <v>28</v>
@@ -41643,10 +41643,10 @@
         <v>30</v>
       </c>
       <c r="N561" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O561" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="P561" s="2" t="s">
         <v>32</v>
@@ -41681,22 +41681,22 @@
         <v>22</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>336</v>
+        <v>705</v>
       </c>
       <c r="H562" s="1" t="s">
-        <v>337</v>
+        <v>706</v>
       </c>
       <c r="I562" s="1" t="s">
-        <v>338</v>
+        <v>706</v>
       </c>
       <c r="J562" s="2" t="s">
         <v>28</v>
@@ -41711,10 +41711,10 @@
         <v>30</v>
       </c>
       <c r="N562" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="O562" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="P562" s="2" t="s">
         <v>32</v>
@@ -41729,7 +41729,7 @@
         <v>32</v>
       </c>
       <c r="T562" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="U562" s="1" t="s">
         <v>33</v>
@@ -41749,22 +41749,22 @@
         <v>22</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>618</v>
+        <v>458</v>
       </c>
       <c r="H563" s="1" t="s">
-        <v>619</v>
+        <v>459</v>
       </c>
       <c r="I563" s="1" t="s">
-        <v>619</v>
+        <v>459</v>
       </c>
       <c r="J563" s="2" t="s">
         <v>28</v>
@@ -41779,10 +41779,10 @@
         <v>30</v>
       </c>
       <c r="N563" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O563" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P563" s="2" t="s">
         <v>32</v>
@@ -41817,22 +41817,22 @@
         <v>22</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="H564" s="1" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="I564" s="1" t="s">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="J564" s="2" t="s">
         <v>28</v>
@@ -41847,10 +41847,10 @@
         <v>30</v>
       </c>
       <c r="N564" s="2" t="s">
-        <v>1012</v>
+        <v>46</v>
       </c>
       <c r="O564" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P564" s="2" t="s">
         <v>32</v>
@@ -41885,22 +41885,22 @@
         <v>22</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="H565" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="I565" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="J565" s="2" t="s">
         <v>28</v>
@@ -41915,10 +41915,10 @@
         <v>30</v>
       </c>
       <c r="N565" s="2" t="s">
-        <v>86</v>
+        <v>1015</v>
       </c>
       <c r="O565" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="P565" s="2" t="s">
         <v>32</v>
@@ -41953,22 +41953,22 @@
         <v>22</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="J566" s="2" t="s">
         <v>28</v>
@@ -41983,10 +41983,10 @@
         <v>30</v>
       </c>
       <c r="N566" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O566" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P566" s="2" t="s">
         <v>32</v>
@@ -42021,22 +42021,22 @@
         <v>22</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>851</v>
+        <v>222</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>852</v>
+        <v>223</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>852</v>
+        <v>223</v>
       </c>
       <c r="J567" s="2" t="s">
         <v>28</v>
@@ -42051,7 +42051,7 @@
         <v>30</v>
       </c>
       <c r="N567" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="O567" s="2" t="s">
         <v>46</v>
@@ -42069,7 +42069,7 @@
         <v>32</v>
       </c>
       <c r="T567" s="2" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="U567" s="1" t="s">
         <v>33</v>
@@ -42089,22 +42089,22 @@
         <v>22</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>1017</v>
+        <v>851</v>
       </c>
       <c r="H568" s="1" t="s">
-        <v>1018</v>
+        <v>852</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>1018</v>
+        <v>852</v>
       </c>
       <c r="J568" s="2" t="s">
         <v>28</v>
@@ -42119,7 +42119,7 @@
         <v>30</v>
       </c>
       <c r="N568" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O568" s="2" t="s">
         <v>46</v>
@@ -42341,7 +42341,7 @@
         <v>32</v>
       </c>
       <c r="T571" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="U571" s="1" t="s">
         <v>33</v>
@@ -42394,7 +42394,7 @@
         <v>32</v>
       </c>
       <c r="O572" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P572" s="2" t="s">
         <v>32</v>
@@ -42477,7 +42477,7 @@
         <v>32</v>
       </c>
       <c r="T573" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="U573" s="1" t="s">
         <v>33</v>
@@ -42595,10 +42595,10 @@
         <v>30</v>
       </c>
       <c r="N575" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="O575" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P575" s="2" t="s">
         <v>32</v>
@@ -42613,7 +42613,7 @@
         <v>32</v>
       </c>
       <c r="T575" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="U575" s="1" t="s">
         <v>33</v>
@@ -42935,10 +42935,10 @@
         <v>30</v>
       </c>
       <c r="N580" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O580" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P580" s="2" t="s">
         <v>32</v>
@@ -42953,7 +42953,7 @@
         <v>32</v>
       </c>
       <c r="T580" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="U580" s="1" t="s">
         <v>33</v>
@@ -43006,7 +43006,7 @@
         <v>318</v>
       </c>
       <c r="O581" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="P581" s="2" t="s">
         <v>32</v>
@@ -43021,7 +43021,7 @@
         <v>32</v>
       </c>
       <c r="T581" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="U581" s="1" t="s">
         <v>33</v>
@@ -43089,7 +43089,7 @@
         <v>32</v>
       </c>
       <c r="T582" s="2" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="U582" s="1" t="s">
         <v>33</v>
@@ -43157,7 +43157,7 @@
         <v>32</v>
       </c>
       <c r="T583" s="2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="U583" s="1" t="s">
         <v>33</v>
